--- a/configurations.xlsx
+++ b/configurations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mprivitera\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebrambatti\Documents\GitHub\rewardshaping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC8E04D-6553-4B86-8A6C-6C5B05821237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE6746F-FEF4-4FDC-B276-C47C62631469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED0B230A-7F90-4DDC-9730-AF1A055F0418}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +484,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>

--- a/configurations.xlsx
+++ b/configurations.xlsx
@@ -1,87 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elebr\rewardshaping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E6077F-6380-435F-9B2E-F31188C57599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ED0B230A-7F90-4DDC-9730-AF1A055F0418}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>configuration</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>mean_demand</t>
-  </si>
-  <si>
-    <t>coef_of_var</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,28 +46,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -159,7 +164,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -265,7 +270,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -407,84 +412,116 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3798ACEC-29E5-45B8-A739-40F95B81E777}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>configuration</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>w</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>mean_demand</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>coef_of_var</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>base_stock_level</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I2" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K2" t="n">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/configurations.xlsx
+++ b/configurations.xlsx
@@ -521,7 +521,7 @@
         <v>0.3</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/configurations.xlsx
+++ b/configurations.xlsx
@@ -424,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="L1" sqref="L1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -488,6 +488,16 @@
           <t>base_stock_level</t>
         </is>
       </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -521,7 +531,13 @@
         <v>0.3</v>
       </c>
       <c r="K2" t="n">
+        <v>7</v>
+      </c>
+      <c r="L2" t="n">
         <v>6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/configurations.xlsx
+++ b/configurations.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -49,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -426,11 +426,11 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -485,17 +485,17 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>base_stock_level</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Q</t>
         </is>
       </c>
     </row>
@@ -534,10 +534,10 @@
         <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/configurations.xlsx
+++ b/configurations.xlsx
@@ -1,33 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elebr\rewardshaping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5869E395-F8E0-42FC-9E99-F1AE7F36D804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>configuration</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>mean_demand</t>
+  </si>
+  <si>
+    <t>coef_of_var</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +92,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,125 +406,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>configuration</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>w</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>mean_demand</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>coef_of_var</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>base_stock_level</t>
-        </is>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="J2">
+        <v>0.7</v>
+      </c>
+      <c r="K2">
         <v>7</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/configurations.xlsx
+++ b/configurations.xlsx
@@ -1,33 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mprivitera\Documents\GitHub\rewardshaping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0306FA-CDED-4F97-AA0F-2E39020A0B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="4815" yWindow="4425" windowWidth="22305" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>configuration</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>mean_demand</t>
+  </si>
+  <si>
+    <t>coef_of_var</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,81 +85,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,125 +403,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>configuration</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>w</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>mean_demand</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>coef_of_var</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>base_stock_level</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="1">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>25</v>
+      <c r="J2">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/configurations.xlsx
+++ b/configurations.xlsx
@@ -1,73 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mprivitera\Documents\GitHub\rewardshaping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0306FA-CDED-4F97-AA0F-2E39020A0B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="4425" windowWidth="22305" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4815" yWindow="4425" windowWidth="22305" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>configuration</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>mean_demand</t>
-  </si>
-  <si>
-    <t>coef_of_var</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,24 +46,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -403,77 +422,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>configuration</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>w</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>mean_demand</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>coef_of_var</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L2" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/configurations.xlsx
+++ b/configurations.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -49,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -424,13 +424,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M2"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -485,15 +485,10 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>base_stock_level</t>
+          <t>s</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
@@ -531,12 +526,9 @@
         <v>0.3</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
-      </c>
-      <c r="M2" t="n">
         <v>3</v>
       </c>
     </row>
